--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB5D276-3B6D-1C4D-ABAA-C19CEAF5B645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8205FBD5-0E36-CA47-9108-FF54778C55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="520" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems Records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2436,8 +2435,8 @@
   </sheetPr>
   <dimension ref="A1:AQ929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -5376,23 +5375,23 @@
       </c>
     </row>
     <row r="87" spans="1:27" ht="16">
-      <c r="A87" s="10" t="str">
+      <c r="A87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Evaluate Reverse Polish Notation</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D87" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="12">
+      <c r="D87" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="8">
         <v>44426</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="9" t="s">
         <v>131</v>
       </c>
       <c r="Y87" s="11"/>
@@ -5628,23 +5627,23 @@
       </c>
     </row>
     <row r="96" spans="1:27" ht="16">
-      <c r="A96" s="10" t="str">
+      <c r="A96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Maximum Points from Cards</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="12">
+      <c r="D96" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
         <v>44426</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="9" t="s">
         <v>102</v>
       </c>
       <c r="Y96" s="11"/>
@@ -5816,23 +5815,23 @@
       </c>
     </row>
     <row r="103" spans="1:27" ht="16">
-      <c r="A103" s="10" t="str">
+      <c r="A103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Container with Most Water</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="11" t="s">
+      <c r="B103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="12">
+      <c r="D103" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="8">
         <v>44426</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="9" t="s">
         <v>65</v>
       </c>
       <c r="Y103" s="11"/>
@@ -6012,23 +6011,23 @@
       </c>
     </row>
     <row r="110" spans="1:27" ht="16">
-      <c r="A110" s="10" t="str">
+      <c r="A110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Two City Scheduling</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B110" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="12">
+      <c r="D110" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8">
         <v>44427</v>
       </c>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Y110" s="11"/>
@@ -9795,7 +9794,7 @@
     </row>
     <row r="258" spans="1:27" ht="16">
       <c r="A258" s="10" t="str">
-        <f t="shared" ref="A258:A321" si="7">HYPERLINK(Z261,AA261)</f>
+        <f t="shared" ref="A258:A317" si="7">HYPERLINK(Z261,AA261)</f>
         <v>Subarrays with k Different Integers</v>
       </c>
       <c r="B258" s="11" t="s">

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8205FBD5-0E36-CA47-9108-FF54778C55F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A702A-2EF4-4549-94C1-0CB551A0D806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Problems Records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="690">
   <si>
     <t>Problem</t>
   </si>
@@ -2099,6 +2100,9 @@
   </si>
   <si>
     <t>Nth Magical Number</t>
+  </si>
+  <si>
+    <t>Interesante!!</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:AQ929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2628,23 +2632,23 @@
       <c r="AQ3" s="3"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Palindrome Linked List</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>44428</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="3"/>
@@ -2901,23 +2905,23 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Min Stack</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
         <v>44429</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -3189,23 +3193,23 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="str">
+      <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Maximum Ascending Subarray Sum</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>44433</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -3727,23 +3731,23 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="str">
+      <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Best time to Buy and Sell Stock</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
         <v>44433</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M28" s="16">
@@ -4103,23 +4107,23 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A41" s="10" t="str">
+      <c r="A41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>First Bad Version</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12">
+      <c r="D41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
         <v>44433</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="9" t="s">
         <v>92</v>
       </c>
       <c r="Y41" s="11"/>
@@ -5207,24 +5211,27 @@
       </c>
     </row>
     <row r="81" spans="1:27" ht="16">
-      <c r="A81" s="10" t="str">
+      <c r="A81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Copy Linked List with Random Pointer</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="12">
+      <c r="D81" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
         <v>44439</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="9" t="s">
         <v>195</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>689</v>
       </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="14" t="s">
@@ -5403,23 +5410,23 @@
       </c>
     </row>
     <row r="88" spans="1:27" ht="16">
-      <c r="A88" s="10" t="str">
+      <c r="A88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Asteroid Collision</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" s="12">
+      <c r="D88" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8">
         <v>44440</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="9" t="s">
         <v>165</v>
       </c>
       <c r="Y88" s="11"/>
@@ -5655,23 +5662,23 @@
       </c>
     </row>
     <row r="97" spans="1:27" ht="16">
-      <c r="A97" s="10" t="str">
+      <c r="A97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Longest Substring without Repeating Characters</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="B97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D97" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="12">
+      <c r="D97" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8">
         <v>44442</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Y97" s="11"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A702A-2EF4-4549-94C1-0CB551A0D806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412022BB-4B22-8F4A-ADB4-1B139362006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="692">
   <si>
     <t>Problem</t>
   </si>
@@ -2103,6 +2103,12 @@
   </si>
   <si>
     <t>Interesante!!</t>
+  </si>
+  <si>
+    <t>Repasar</t>
+  </si>
+  <si>
+    <t>Nada obvio!!!</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2219,6 +2225,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2439,8 +2446,8 @@
   </sheetPr>
   <dimension ref="A1:AQ929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -5850,24 +5857,27 @@
       </c>
     </row>
     <row r="104" spans="1:27" ht="16">
-      <c r="A104" s="10" t="str">
+      <c r="A104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>3SUM Closest</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" s="11" t="s">
+      <c r="B104" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="12">
+      <c r="D104" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="8">
         <v>44443</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="Y104" s="11"/>
       <c r="Z104" s="14" t="s">
@@ -6046,21 +6056,24 @@
       </c>
     </row>
     <row r="111" spans="1:27" ht="16">
-      <c r="A111" s="10" t="str">
+      <c r="A111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Task Scheduler</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="11" t="s">
+      <c r="B111" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="D111" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="4" t="s">
+        <v>691</v>
+      </c>
       <c r="Y111" s="11"/>
       <c r="Z111" s="14" t="s">
         <v>280</v>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412022BB-4B22-8F4A-ADB4-1B139362006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC62BA0-D47F-DD42-A154-D2C7926CF683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="520" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems Records" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="697">
   <si>
     <t>Problem</t>
   </si>
@@ -2109,6 +2108,21 @@
   </si>
   <si>
     <t>Nada obvio!!!</t>
+  </si>
+  <si>
+    <t>Do recursion as it is a mirror of the left half</t>
+  </si>
+  <si>
+    <t>TRICKY, keep track of visited</t>
+  </si>
+  <si>
+    <t>TRICKY!!! Use Hashmap</t>
+  </si>
+  <si>
+    <t>Parecido al anterior</t>
+  </si>
+  <si>
+    <t>Super interesante. REVISAR</t>
   </si>
 </sst>
 </file>
@@ -2446,8 +2460,8 @@
   </sheetPr>
   <dimension ref="A1:AQ929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2458,7 +2472,7 @@
     <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="4"/>
-    <col min="7" max="7" width="18" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="4" customWidth="1"/>
     <col min="9" max="23" width="14.5" style="4"/>
     <col min="24" max="24" width="11" style="4" customWidth="1"/>
@@ -2698,23 +2712,23 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Intersection of Two Linked Lists</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>44429</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Y5" s="11"/>
@@ -2960,23 +2974,23 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="str">
+      <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Remove Adjacent Duplicates in String</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
         <v>44432</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="15" t="s">
@@ -3248,23 +3262,23 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="str">
+      <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Valid Mountain Array</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>44433</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K18" s="15" t="s">
@@ -3296,23 +3310,23 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A19" s="10" t="str">
+      <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Peek Index in a Mountain Array</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>44433</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -5249,23 +5263,23 @@
       </c>
     </row>
     <row r="82" spans="1:27" ht="16">
-      <c r="A82" s="10" t="str">
+      <c r="A82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Add Two Numbers 2</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" s="12">
+      <c r="D82" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
         <v>44439</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="9" t="s">
         <v>219</v>
       </c>
       <c r="Y82" s="11"/>
@@ -5445,23 +5459,23 @@
       </c>
     </row>
     <row r="89" spans="1:27" ht="16">
-      <c r="A89" s="10" t="str">
+      <c r="A89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Minimum Remove to Make Valid Parentheses</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" s="12">
+      <c r="D89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="8">
         <v>44440</v>
       </c>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="9" t="s">
         <v>192</v>
       </c>
       <c r="Y89" s="11"/>
@@ -6247,23 +6261,23 @@
       </c>
     </row>
     <row r="118" spans="1:27" ht="16">
-      <c r="A118" s="10" t="str">
+      <c r="A118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Longest Palindromic Substring</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="B118" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" s="12">
+      <c r="D118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8">
         <v>44427</v>
       </c>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Y118" s="11"/>
@@ -6559,23 +6573,23 @@
       </c>
     </row>
     <row r="130" spans="1:27" ht="16">
-      <c r="A130" s="10" t="str">
+      <c r="A130" s="5" t="str">
         <f t="shared" ref="A130:A193" si="5">HYPERLINK(Z133,AA133)</f>
         <v>Top K Frequent Words (Solve using Trie)</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="B130" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E130" s="12">
+      <c r="D130" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" s="8">
         <v>44427</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F130" s="9" t="s">
         <v>327</v>
       </c>
       <c r="Y130" s="11"/>
@@ -6587,23 +6601,23 @@
       </c>
     </row>
     <row r="131" spans="1:27" ht="16">
-      <c r="A131" s="10" t="str">
+      <c r="A131" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Implement Prefix Trie</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="11" t="s">
+      <c r="B131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D131" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E131" s="12">
+      <c r="D131" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" s="8">
         <v>44454</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="F131" s="9" t="s">
         <v>192</v>
       </c>
       <c r="Y131" s="11"/>
@@ -6615,23 +6629,23 @@
       </c>
     </row>
     <row r="132" spans="1:27" ht="16">
-      <c r="A132" s="10" t="str">
+      <c r="A132" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Design Add and Search Words Data Structure</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="B132" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D132" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E132" s="12">
+      <c r="D132" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" s="8">
         <v>44454</v>
       </c>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Y132" s="11"/>
@@ -6795,23 +6809,23 @@
       </c>
     </row>
     <row r="139" spans="1:27" ht="16">
-      <c r="A139" s="10" t="str">
+      <c r="A139" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Merge Intervals</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="11" t="s">
+      <c r="B139" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D139" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E139" s="12">
+      <c r="D139" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" s="8">
         <v>44427</v>
       </c>
-      <c r="F139" s="13" t="s">
+      <c r="F139" s="9" t="s">
         <v>347</v>
       </c>
       <c r="Y139" s="11"/>
@@ -7199,23 +7213,23 @@
       </c>
     </row>
     <row r="155" spans="1:27" ht="16">
-      <c r="A155" s="10" t="str">
+      <c r="A155" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Subsets</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="11" t="s">
+      <c r="B155" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D155" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E155" s="12">
+      <c r="D155" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" s="8">
         <v>44427</v>
       </c>
-      <c r="F155" s="13" t="s">
+      <c r="F155" s="9" t="s">
         <v>37</v>
       </c>
       <c r="Y155" s="11"/>
@@ -7863,23 +7877,23 @@
       </c>
     </row>
     <row r="181" spans="1:27" ht="16">
-      <c r="A181" s="10" t="str">
+      <c r="A181" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Count Good Nodes in Binary Tree</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C181" s="11" t="s">
+      <c r="B181" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D181" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E181" s="12">
+      <c r="D181" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" s="8">
         <v>44427</v>
       </c>
-      <c r="F181" s="13" t="s">
+      <c r="F181" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Y181" s="11"/>
@@ -7891,23 +7905,23 @@
       </c>
     </row>
     <row r="182" spans="1:27" ht="16">
-      <c r="A182" s="10" t="str">
+      <c r="A182" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Lowest Common Ancestor of a Binary Tree</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="11" t="s">
+      <c r="B182" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D182" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E182" s="12">
+      <c r="D182" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" s="8">
         <v>44446</v>
       </c>
-      <c r="F182" s="13" t="s">
+      <c r="F182" s="9" t="s">
         <v>434</v>
       </c>
       <c r="Y182" s="11"/>
@@ -7919,23 +7933,23 @@
       </c>
     </row>
     <row r="183" spans="1:27" ht="16">
-      <c r="A183" s="10" t="str">
+      <c r="A183" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Binary Tree Right Side View</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C183" s="11" t="s">
+      <c r="B183" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D183" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E183" s="12">
+      <c r="D183" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" s="8">
         <v>44446</v>
       </c>
-      <c r="F183" s="13" t="s">
+      <c r="F183" s="9" t="s">
         <v>228</v>
       </c>
       <c r="Y183" s="11"/>
@@ -7947,24 +7961,27 @@
       </c>
     </row>
     <row r="184" spans="1:27" ht="16">
-      <c r="A184" s="10" t="str">
+      <c r="A184" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Validate Binary Search Tree</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" s="11" t="s">
+      <c r="B184" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D184" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E184" s="12">
+      <c r="D184" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" s="8">
         <v>44446</v>
       </c>
-      <c r="F184" s="13" t="s">
+      <c r="F184" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>689</v>
       </c>
       <c r="Y184" s="11"/>
       <c r="Z184" s="14" t="s">
@@ -8247,23 +8264,23 @@
       </c>
     </row>
     <row r="196" spans="1:27" ht="16">
-      <c r="A196" s="10" t="str">
+      <c r="A196" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Validate Binary Search Tree</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C196" s="11" t="s">
+      <c r="B196" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D196" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E196" s="12">
+      <c r="D196" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" s="8">
         <v>44427</v>
       </c>
-      <c r="F196" s="13" t="s">
+      <c r="F196" s="9" t="s">
         <v>192</v>
       </c>
       <c r="Y196" s="11"/>
@@ -8275,23 +8292,23 @@
       </c>
     </row>
     <row r="197" spans="1:27" ht="16">
-      <c r="A197" s="10" t="str">
+      <c r="A197" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Insert into BST</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C197" s="11" t="s">
+      <c r="B197" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D197" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E197" s="12">
+      <c r="D197" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" s="8">
         <v>44429</v>
       </c>
-      <c r="F197" s="13" t="s">
+      <c r="F197" s="9" t="s">
         <v>87</v>
       </c>
       <c r="Y197" s="11"/>
@@ -8303,21 +8320,21 @@
       </c>
     </row>
     <row r="198" spans="1:27" ht="16">
-      <c r="A198" s="10" t="str">
+      <c r="A198" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Unique Binary Search Trees</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C198" s="11" t="s">
+      <c r="B198" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D198" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
+      <c r="D198" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
       <c r="Y198" s="11"/>
       <c r="Z198" s="14" t="s">
         <v>461</v>
@@ -8327,24 +8344,27 @@
       </c>
     </row>
     <row r="199" spans="1:27" ht="16">
-      <c r="A199" s="10" t="str">
+      <c r="A199" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Recover Binary Search Tree</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C199" s="11" t="s">
+      <c r="B199" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D199" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E199" s="12">
+      <c r="D199" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" s="8">
         <v>44447</v>
       </c>
-      <c r="F199" s="13" t="s">
+      <c r="F199" s="9" t="s">
         <v>467</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>689</v>
       </c>
       <c r="Y199" s="11"/>
       <c r="Z199" s="14" t="s">
@@ -8431,23 +8451,23 @@
       </c>
     </row>
     <row r="203" spans="1:27" ht="16">
-      <c r="A203" s="10" t="str">
+      <c r="A203" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Bitwise AND of Numbers Range</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C203" s="11" t="s">
+      <c r="B203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D203" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E203" s="12">
+      <c r="D203" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" s="8">
         <v>44427</v>
       </c>
-      <c r="F203" s="13" t="s">
+      <c r="F203" s="9" t="s">
         <v>219</v>
       </c>
       <c r="Y203" s="11"/>
@@ -8459,21 +8479,24 @@
       </c>
     </row>
     <row r="204" spans="1:27" ht="16">
-      <c r="A204" s="10" t="str">
+      <c r="A204" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Find Kth Bit in Nth Binary String</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C204" s="11" t="s">
+      <c r="B204" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D204" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
+      <c r="D204" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="4" t="s">
+        <v>692</v>
+      </c>
       <c r="Y204" s="11"/>
       <c r="Z204" s="14" t="s">
         <v>472</v>
@@ -8507,23 +8530,23 @@
       </c>
     </row>
     <row r="206" spans="1:27" ht="16">
-      <c r="A206" s="10" t="str">
+      <c r="A206" s="5" t="str">
         <f t="shared" si="6"/>
         <v>K Closest Points to Origin</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C206" s="11" t="s">
+      <c r="B206" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D206" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E206" s="12">
+      <c r="D206" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" s="8">
         <v>44428</v>
       </c>
-      <c r="F206" s="13" t="s">
+      <c r="F206" s="9" t="s">
         <v>482</v>
       </c>
       <c r="Y206" s="11"/>
@@ -8535,23 +8558,23 @@
       </c>
     </row>
     <row r="207" spans="1:27" ht="16">
-      <c r="A207" s="10" t="str">
+      <c r="A207" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Top K Frequent Elements</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" s="11" t="s">
+      <c r="B207" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D207" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E207" s="12">
+      <c r="D207" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207" s="8">
         <v>44455</v>
       </c>
-      <c r="F207" s="13" t="s">
+      <c r="F207" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y207" s="11"/>
@@ -8563,21 +8586,24 @@
       </c>
     </row>
     <row r="208" spans="1:27" ht="16">
-      <c r="A208" s="10" t="str">
+      <c r="A208" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Find K Pairs with Smallest Sums</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C208" s="11" t="s">
+      <c r="B208" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D208" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
+      <c r="D208" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="4" t="s">
+        <v>693</v>
+      </c>
       <c r="Y208" s="11"/>
       <c r="Z208" s="14" t="s">
         <v>480</v>
@@ -8735,23 +8761,23 @@
       </c>
     </row>
     <row r="215" spans="1:27" ht="16">
-      <c r="A215" s="10" t="str">
+      <c r="A215" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Rotting Oranges</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C215" s="11" t="s">
+      <c r="B215" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D215" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E215" s="12">
+      <c r="D215" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" s="8">
         <v>44431</v>
       </c>
-      <c r="F215" s="13" t="s">
+      <c r="F215" s="9" t="s">
         <v>501</v>
       </c>
       <c r="Y215" s="11"/>
@@ -8763,23 +8789,23 @@
       </c>
     </row>
     <row r="216" spans="1:27" ht="16">
-      <c r="A216" s="10" t="str">
+      <c r="A216" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pacific Atlantic Water Flow</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C216" s="11" t="s">
+      <c r="B216" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D216" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E216" s="12">
+      <c r="D216" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" s="8">
         <v>44458</v>
       </c>
-      <c r="F216" s="13" t="s">
+      <c r="F216" s="9" t="s">
         <v>228</v>
       </c>
       <c r="Y216" s="11"/>
@@ -8791,24 +8817,27 @@
       </c>
     </row>
     <row r="217" spans="1:27" ht="16">
-      <c r="A217" s="10" t="str">
+      <c r="A217" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Course Schedule</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C217" s="11" t="s">
+      <c r="B217" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D217" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E217" s="12">
+      <c r="D217" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" s="8">
         <v>44459</v>
       </c>
-      <c r="F217" s="13" t="s">
+      <c r="F217" s="9" t="s">
         <v>208</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>694</v>
       </c>
       <c r="Y217" s="11"/>
       <c r="Z217" s="14" t="s">
@@ -8819,24 +8848,27 @@
       </c>
     </row>
     <row r="218" spans="1:27" ht="16">
-      <c r="A218" s="10" t="str">
+      <c r="A218" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Find Eventual Safe States</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="11" t="s">
+      <c r="B218" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D218" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E218" s="12">
+      <c r="D218" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" s="8">
         <v>44459</v>
       </c>
-      <c r="F218" s="13" t="s">
+      <c r="F218" s="9" t="s">
         <v>65</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>695</v>
       </c>
       <c r="Y218" s="11"/>
       <c r="Z218" s="14" t="s">
@@ -8847,23 +8879,23 @@
       </c>
     </row>
     <row r="219" spans="1:27" ht="16">
-      <c r="A219" s="10" t="str">
+      <c r="A219" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Course Schedule 2</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" s="11" t="s">
+      <c r="B219" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D219" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E219" s="12">
+      <c r="D219" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" s="8">
         <v>44459</v>
       </c>
-      <c r="F219" s="13" t="s">
+      <c r="F219" s="9" t="s">
         <v>92</v>
       </c>
       <c r="Y219" s="11"/>
@@ -8875,23 +8907,26 @@
       </c>
     </row>
     <row r="220" spans="1:27" ht="16">
-      <c r="A220" s="10" t="str">
+      <c r="A220" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Reconstruct Itinerary</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D220" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E220" s="12">
+      <c r="D220" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" s="8">
         <v>44503</v>
       </c>
-      <c r="F220" s="13"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="4" t="s">
+        <v>696</v>
+      </c>
       <c r="Y220" s="11"/>
       <c r="Z220" s="14" t="s">
         <v>506</v>
@@ -9069,23 +9104,23 @@
       </c>
     </row>
     <row r="228" spans="1:27" ht="16">
-      <c r="A228" s="10" t="str">
+      <c r="A228" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Unique Paths</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" s="11" t="s">
+      <c r="B228" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D228" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E228" s="12">
+      <c r="D228" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" s="8">
         <v>44431</v>
       </c>
-      <c r="F228" s="13" t="s">
+      <c r="F228" s="9" t="s">
         <v>527</v>
       </c>
       <c r="Y228" s="11"/>
@@ -9389,23 +9424,23 @@
       </c>
     </row>
     <row r="241" spans="1:27" ht="16">
-      <c r="A241" s="10" t="str">
+      <c r="A241" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Robot Bounded in Circle</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C241" s="11" t="s">
+      <c r="B241" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D241" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E241" s="12">
+      <c r="D241" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" s="8">
         <v>44431</v>
       </c>
-      <c r="F241" s="13" t="s">
+      <c r="F241" s="9" t="s">
         <v>548</v>
       </c>
       <c r="Y241" s="11"/>
@@ -9641,23 +9676,23 @@
       </c>
     </row>
     <row r="251" spans="1:27" ht="16">
-      <c r="A251" s="10" t="str">
+      <c r="A251" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Merge K Sorted Lists</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C251" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D251" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E251" s="12">
+      <c r="D251" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" s="8">
         <v>44431</v>
       </c>
-      <c r="F251" s="13" t="s">
+      <c r="F251" s="9" t="s">
         <v>54</v>
       </c>
       <c r="Y251" s="11"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC62BA0-D47F-DD42-A154-D2C7926CF683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE7AB31-5968-F44B-B7EA-A2BD36C8A964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="520" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems Records" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="699">
   <si>
     <t>Problem</t>
   </si>
@@ -2123,6 +2123,12 @@
   </si>
   <si>
     <t>Super interesante. REVISAR</t>
+  </si>
+  <si>
+    <t>Tricky cómo calcular el numerod e subsequencias (2**(r-l))</t>
+  </si>
+  <si>
+    <t>Nice thinking!!!</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2240,6 +2246,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2461,7 +2468,7 @@
   <dimension ref="A1:AQ929"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2472,7 +2479,7 @@
     <col min="4" max="4" width="15.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="4"/>
-    <col min="7" max="7" width="39.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="68.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="4" customWidth="1"/>
     <col min="9" max="23" width="14.5" style="4"/>
     <col min="24" max="24" width="11" style="4" customWidth="1"/>
@@ -3358,23 +3365,23 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="str">
+      <c r="A20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>3SUM</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
         <v>44433</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="11"/>
@@ -5487,23 +5494,23 @@
       </c>
     </row>
     <row r="90" spans="1:27" ht="16">
-      <c r="A90" s="10" t="str">
+      <c r="A90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Daily Temperatures</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" s="12">
+      <c r="D90" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8">
         <v>44440</v>
       </c>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="9" t="s">
         <v>219</v>
       </c>
       <c r="Y90" s="11"/>
@@ -5711,24 +5718,27 @@
       </c>
     </row>
     <row r="98" spans="1:27" ht="16">
-      <c r="A98" s="10" t="str">
+      <c r="A98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Number of Subsequences with Given Sum</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="11" t="s">
+      <c r="B98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D98" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="12">
+      <c r="D98" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8">
         <v>44443</v>
       </c>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="9" t="s">
         <v>256</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>697</v>
       </c>
       <c r="Y98" s="11"/>
       <c r="Z98" s="14" t="s">
@@ -5902,23 +5912,23 @@
       </c>
     </row>
     <row r="105" spans="1:27" ht="16">
-      <c r="A105" s="10" t="str">
+      <c r="A105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>4SUM</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="11" t="s">
+      <c r="B105" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" s="12">
+      <c r="D105" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="8">
         <v>44443</v>
       </c>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Y105" s="11"/>
@@ -6097,24 +6107,27 @@
       </c>
     </row>
     <row r="112" spans="1:27" ht="16">
-      <c r="A112" s="10" t="str">
+      <c r="A112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Jump Game</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="11" t="s">
+      <c r="B112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D112" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="12">
+      <c r="D112" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
         <v>44448</v>
       </c>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="9" t="s">
         <v>92</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="Y112" s="11"/>
       <c r="Z112" s="14" t="s">
@@ -6289,23 +6302,23 @@
       </c>
     </row>
     <row r="119" spans="1:27" ht="16">
-      <c r="A119" s="10" t="str">
+      <c r="A119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Group Anagrams</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="B119" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="12">
+      <c r="D119" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" s="8">
         <v>44429</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y119" s="11"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjmnz/Coding/cracking_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE7AB31-5968-F44B-B7EA-A2BD36C8A964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E16A3-CAAE-EC45-9B1D-8266549903DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="500" windowWidth="32420" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2468,7 +2468,7 @@
   <dimension ref="A1:AQ929"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2747,23 +2747,23 @@
       </c>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A6" s="10" t="str">
+      <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Linked List Cycle</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
         <v>44429</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -7534,23 +7534,23 @@
       </c>
     </row>
     <row r="167" spans="1:27" ht="16">
-      <c r="A167" s="10" t="str">
+      <c r="A167" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Find First and Last Position of Element in Sorted Array</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" s="11" t="s">
+      <c r="B167" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D167" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E167" s="12">
+      <c r="D167" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" s="8">
         <v>44427</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="F167" s="9" t="s">
         <v>259</v>
       </c>
       <c r="Y167" s="11"/>
@@ -7562,23 +7562,23 @@
       </c>
     </row>
     <row r="168" spans="1:27" ht="16">
-      <c r="A168" s="10" t="str">
+      <c r="A168" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Find Minimum in Rotated Sorted Array</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" s="11" t="s">
+      <c r="B168" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D168" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E168" s="12">
+      <c r="D168" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" s="8">
         <v>44454</v>
       </c>
-      <c r="F168" s="13" t="s">
+      <c r="F168" s="9" t="s">
         <v>404</v>
       </c>
       <c r="Y168" s="11"/>
@@ -7590,23 +7590,23 @@
       </c>
     </row>
     <row r="169" spans="1:27" ht="16">
-      <c r="A169" s="10" t="str">
+      <c r="A169" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Search a 2D Matrix</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C169" s="11" t="s">
+      <c r="B169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D169" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E169" s="12">
+      <c r="D169" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" s="8">
         <v>44453</v>
       </c>
-      <c r="F169" s="13" t="s">
+      <c r="F169" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y169" s="11"/>
@@ -13701,7 +13701,7 @@
       <c r="H929" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E252" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
